--- a/uploads/rating_test.xlsx
+++ b/uploads/rating_test.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Desktop\rating_API\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="7110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11292" windowHeight="7116"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>№ п/п</t>
   </si>
@@ -103,16 +108,19 @@
     <t>Шахматы</t>
   </si>
   <si>
-    <t>Четкий пацан пацанович</t>
-  </si>
-  <si>
     <t>11Э</t>
   </si>
   <si>
-    <t>Четкий пацан пацанович 2</t>
+    <t>н/а</t>
   </si>
   <si>
-    <t>н/а</t>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Петров Петр Петрович</t>
+  </si>
+  <si>
+    <t>7В</t>
   </si>
 </sst>
 </file>
@@ -636,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,43 +890,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" customWidth="1"/>
-    <col min="23" max="23" width="6.140625" customWidth="1"/>
-    <col min="24" max="25" width="4.42578125" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" customWidth="1"/>
-    <col min="28" max="28" width="9.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" customWidth="1"/>
+    <col min="19" max="19" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" customWidth="1"/>
+    <col min="21" max="21" width="6.109375" customWidth="1"/>
+    <col min="22" max="22" width="4.44140625" customWidth="1"/>
+    <col min="23" max="23" width="6.109375" customWidth="1"/>
+    <col min="24" max="25" width="4.44140625" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" customWidth="1"/>
+    <col min="27" max="27" width="6.88671875" customWidth="1"/>
+    <col min="28" max="28" width="9.44140625" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,15 +1015,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -1108,15 +1116,15 @@
         <v>7.6923076923076925</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7">
         <v>4</v>
@@ -1137,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="18">
         <v>4</v>
@@ -1146,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" s="18">
         <v>5</v>
@@ -1170,7 +1178,7 @@
       </c>
       <c r="T3" s="17">
         <f>COUNTIF(E3:Q3,"=4")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3" s="17">
         <f>COUNTIF(E3:Q3,"=3,5")</f>
@@ -1186,7 +1194,7 @@
       </c>
       <c r="X3" s="17">
         <f>COUNTIF(E3:Q3,"=2")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="17">
         <f>COUNTIF(E3:Q3,"=1")</f>
@@ -1202,14 +1210,14 @@
       </c>
       <c r="AB3" s="17">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="21">
         <f t="shared" si="2"/>
-        <v>3.4615384615384617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>2</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>2</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>3</v>
       </c>
@@ -1692,7 +1700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>3</v>
       </c>
@@ -1761,7 +1769,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>3</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>3</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>4</v>
       </c>
@@ -2037,7 +2045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>4</v>
       </c>
@@ -2106,7 +2114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>4</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>4</v>
       </c>
@@ -2313,7 +2321,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>4</v>
       </c>
@@ -2382,7 +2390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>4</v>
       </c>
@@ -2451,7 +2459,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>4</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>4</v>
       </c>
@@ -2589,7 +2597,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>4</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>5</v>
       </c>
@@ -2727,7 +2735,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>5</v>
       </c>
@@ -2796,7 +2804,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>5</v>
       </c>
@@ -2865,7 +2873,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>6</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>6</v>
       </c>
@@ -3003,7 +3011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>7</v>
       </c>
@@ -3072,7 +3080,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>7</v>
       </c>
@@ -3141,7 +3149,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>7</v>
       </c>
@@ -3210,7 +3218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>7</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>7</v>
       </c>
@@ -3348,7 +3356,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>7</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>8</v>
       </c>
@@ -3486,7 +3494,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>8</v>
       </c>
@@ -3555,7 +3563,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>8</v>
       </c>
@@ -3624,7 +3632,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>8</v>
       </c>
@@ -3693,7 +3701,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>9</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>9</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>10</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>10</v>
       </c>
@@ -3969,7 +3977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>10</v>
       </c>
@@ -4038,7 +4046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>11</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>12</v>
       </c>
@@ -4176,7 +4184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>13</v>
       </c>
@@ -4245,7 +4253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>13</v>
       </c>
@@ -4314,7 +4322,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>14</v>
       </c>
@@ -4383,7 +4391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>14</v>
       </c>
@@ -4452,7 +4460,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>14</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>14</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>14</v>
       </c>
@@ -4659,7 +4667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>14</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>14</v>
       </c>
@@ -4797,7 +4805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>15</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>15</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>15</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>16</v>
       </c>
@@ -5073,7 +5081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>16</v>
       </c>
@@ -5142,7 +5150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>16</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>17</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>17</v>
       </c>
@@ -5349,7 +5357,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>18</v>
       </c>
@@ -5418,7 +5426,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>18</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>18</v>
       </c>
@@ -5556,7 +5564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>18</v>
       </c>
@@ -5625,7 +5633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>18</v>
       </c>
@@ -5694,7 +5702,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>18</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>19</v>
       </c>
@@ -5832,7 +5840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>19</v>
       </c>
@@ -5901,7 +5909,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>20</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>20</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>21</v>
       </c>
@@ -6108,7 +6116,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>21</v>
       </c>
@@ -6177,7 +6185,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>22</v>
       </c>
@@ -6246,7 +6254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>23</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>24</v>
       </c>
@@ -6384,7 +6392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>25</v>
       </c>
@@ -6453,7 +6461,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>25</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>26</v>
       </c>
@@ -6591,7 +6599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="31">
         <v>27</v>
       </c>

--- a/uploads/rating_test.xlsx
+++ b/uploads/rating_test.xlsx
@@ -103,16 +103,16 @@
     <t>Шахматы</t>
   </si>
   <si>
-    <t>Четкий пацан пацанович</t>
-  </si>
-  <si>
     <t>11Э</t>
   </si>
   <si>
-    <t>Четкий пацан пацанович 2</t>
+    <t>н/а</t>
   </si>
   <si>
-    <t>н/а</t>
+    <t>Иванов Евгений Кириллович</t>
+  </si>
+  <si>
+    <t>Закариев Арсен Омарович</t>
   </si>
 </sst>
 </file>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D76" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7">
         <v>4</v>
@@ -1146,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N3" s="18">
         <v>5</v>
